--- a/Results/Table. Three-way ANOVA.xlsx
+++ b/Results/Table. Three-way ANOVA.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cuadro 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/Results/Table. Three-way ANOVA.xlsx
+++ b/Results/Table. Three-way ANOVA.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -17,22 +17,22 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salida.Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salida.Pennisetum</t>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out.flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In.flow.Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In.flow.Pennisetum</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">75.6 ± 17 b</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductividad</t>
+    <t xml:space="preserve">conductivity</t>
   </si>
   <si>
     <t xml:space="preserve">353.4 ± 11.93 b</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">300.3 ± 10.43 a</t>
   </si>
   <si>
-    <t xml:space="preserve">OD</t>
+    <t xml:space="preserve">DO</t>
   </si>
   <si>
     <t xml:space="preserve">4.3 ± 0.23 a</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">4.7 ± 0.17 a</t>
   </si>
   <si>
-    <t xml:space="preserve">Temperatura</t>
+    <t xml:space="preserve">temperature</t>
   </si>
   <si>
     <t xml:space="preserve">24.5 ± 0.24 </t>
